--- a/ftr_questionnaire/drafts_e1_to_e4/questions_e3.xlsx
+++ b/ftr_questionnaire/drafts_e1_to_e4/questions_e3.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10509"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cole/Dropbox/ftr_research/ftr_questionnaire_master/ftr_questionnaire/drafts_e1_to_e4/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34CBF734-3459-2343-8A53-05EE4F1B6774}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="460" windowWidth="21280" windowHeight="13700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -1258,8 +1264,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1322,6 +1328,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1368,7 +1382,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1400,9 +1414,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1434,6 +1466,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1609,14 +1659,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P201"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P1" sqref="P1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1666,7 +1718,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1713,7 +1765,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="3" spans="1:16">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1760,7 +1812,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="4" spans="1:16">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1</v>
       </c>
@@ -1807,7 +1859,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="5" spans="1:16">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1</v>
       </c>
@@ -1854,7 +1906,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="6" spans="1:16">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>1</v>
       </c>
@@ -1901,7 +1953,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="7" spans="1:16">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>1</v>
       </c>
@@ -1948,7 +2000,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="8" spans="1:16">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>1</v>
       </c>
@@ -1995,7 +2047,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="9" spans="1:16">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>1</v>
       </c>
@@ -2042,7 +2094,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="10" spans="1:16">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>1</v>
       </c>
@@ -2089,7 +2141,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="11" spans="1:16">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>1</v>
       </c>
@@ -2139,7 +2191,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="12" spans="1:16">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>1</v>
       </c>
@@ -2186,7 +2238,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="13" spans="1:16">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>1</v>
       </c>
@@ -2236,7 +2288,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="14" spans="1:16">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>1</v>
       </c>
@@ -2283,7 +2335,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="15" spans="1:16">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>1</v>
       </c>
@@ -2330,7 +2382,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="16" spans="1:16">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>1</v>
       </c>
@@ -2377,7 +2429,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="17" spans="1:16">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>1</v>
       </c>
@@ -2424,7 +2476,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="18" spans="1:16">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>1</v>
       </c>
@@ -2471,7 +2523,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="19" spans="1:16">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>1</v>
       </c>
@@ -2518,7 +2570,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="20" spans="1:16">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>1</v>
       </c>
@@ -2565,7 +2617,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="21" spans="1:16">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>1</v>
       </c>
@@ -2612,7 +2664,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="22" spans="1:16">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>1</v>
       </c>
@@ -2659,7 +2711,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="23" spans="1:16">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>1</v>
       </c>
@@ -2706,7 +2758,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="24" spans="1:16">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>1</v>
       </c>
@@ -2753,7 +2805,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="25" spans="1:16">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>1</v>
       </c>
@@ -2803,7 +2855,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="26" spans="1:16">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>1</v>
       </c>
@@ -2853,7 +2905,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="27" spans="1:16">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>1</v>
       </c>
@@ -2900,7 +2952,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="28" spans="1:16">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>1</v>
       </c>
@@ -2950,7 +3002,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="29" spans="1:16">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>1</v>
       </c>
@@ -2997,7 +3049,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="30" spans="1:16">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>1</v>
       </c>
@@ -3044,7 +3096,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="31" spans="1:16">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>1</v>
       </c>
@@ -3091,7 +3143,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="32" spans="1:16">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>1</v>
       </c>
@@ -3138,7 +3190,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="33" spans="1:16">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>1</v>
       </c>
@@ -3185,7 +3237,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="34" spans="1:16">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>1</v>
       </c>
@@ -3232,7 +3284,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="35" spans="1:16">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>1</v>
       </c>
@@ -3279,7 +3331,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="36" spans="1:16">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>1</v>
       </c>
@@ -3326,7 +3378,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="37" spans="1:16">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>1</v>
       </c>
@@ -3373,7 +3425,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="38" spans="1:16">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>1</v>
       </c>
@@ -3420,7 +3472,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="39" spans="1:16">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>1</v>
       </c>
@@ -3467,7 +3519,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="40" spans="1:16">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>1</v>
       </c>
@@ -3514,7 +3566,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="41" spans="1:16">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>1</v>
       </c>
@@ -3561,7 +3613,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="42" spans="1:16">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>1</v>
       </c>
@@ -3608,7 +3660,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="43" spans="1:16">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>1</v>
       </c>
@@ -3655,7 +3707,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="44" spans="1:16">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>1</v>
       </c>
@@ -3702,7 +3754,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="45" spans="1:16">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>1</v>
       </c>
@@ -3749,7 +3801,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="46" spans="1:16">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>1</v>
       </c>
@@ -3796,7 +3848,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="47" spans="1:16">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>1</v>
       </c>
@@ -3843,7 +3895,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="48" spans="1:16">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>1</v>
       </c>
@@ -3890,7 +3942,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="49" spans="1:16">
+    <row r="49" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>1</v>
       </c>
@@ -3940,7 +3992,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="50" spans="1:16">
+    <row r="50" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>1</v>
       </c>
@@ -3987,7 +4039,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="51" spans="1:16">
+    <row r="51" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>1</v>
       </c>
@@ -4037,7 +4089,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="52" spans="1:16">
+    <row r="52" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>1</v>
       </c>
@@ -4084,7 +4136,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="53" spans="1:16">
+    <row r="53" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>1</v>
       </c>
@@ -4131,7 +4183,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="54" spans="1:16">
+    <row r="54" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>1</v>
       </c>
@@ -4181,7 +4233,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="55" spans="1:16">
+    <row r="55" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>1</v>
       </c>
@@ -4231,7 +4283,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="56" spans="1:16">
+    <row r="56" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>1</v>
       </c>
@@ -4281,7 +4333,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="57" spans="1:16">
+    <row r="57" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>1</v>
       </c>
@@ -4331,7 +4383,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="58" spans="1:16">
+    <row r="58" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>1</v>
       </c>
@@ -4381,7 +4433,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="59" spans="1:16">
+    <row r="59" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>1</v>
       </c>
@@ -4431,7 +4483,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="60" spans="1:16">
+    <row r="60" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>1</v>
       </c>
@@ -4478,7 +4530,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="61" spans="1:16">
+    <row r="61" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>1</v>
       </c>
@@ -4528,7 +4580,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="62" spans="1:16">
+    <row r="62" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>1</v>
       </c>
@@ -4575,7 +4627,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="63" spans="1:16">
+    <row r="63" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>1</v>
       </c>
@@ -4622,7 +4674,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="64" spans="1:16">
+    <row r="64" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>1</v>
       </c>
@@ -4669,7 +4721,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="65" spans="1:16">
+    <row r="65" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>1</v>
       </c>
@@ -4716,7 +4768,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="66" spans="1:16">
+    <row r="66" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>1</v>
       </c>
@@ -4766,7 +4818,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="67" spans="1:16">
+    <row r="67" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>1</v>
       </c>
@@ -4813,7 +4865,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="68" spans="1:16">
+    <row r="68" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>1</v>
       </c>
@@ -4860,7 +4912,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="69" spans="1:16">
+    <row r="69" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>1</v>
       </c>
@@ -4907,7 +4959,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="70" spans="1:16">
+    <row r="70" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>1</v>
       </c>
@@ -4957,7 +5009,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="71" spans="1:16">
+    <row r="71" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>1</v>
       </c>
@@ -5007,7 +5059,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="72" spans="1:16">
+    <row r="72" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>1</v>
       </c>
@@ -5054,7 +5106,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="73" spans="1:16">
+    <row r="73" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>1</v>
       </c>
@@ -5101,7 +5153,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="74" spans="1:16">
+    <row r="74" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>1</v>
       </c>
@@ -5148,7 +5200,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="75" spans="1:16">
+    <row r="75" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>1</v>
       </c>
@@ -5195,7 +5247,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="76" spans="1:16">
+    <row r="76" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>1</v>
       </c>
@@ -5242,7 +5294,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="77" spans="1:16">
+    <row r="77" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>1</v>
       </c>
@@ -5289,7 +5341,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="78" spans="1:16">
+    <row r="78" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>1</v>
       </c>
@@ -5336,7 +5388,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="79" spans="1:16">
+    <row r="79" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>1</v>
       </c>
@@ -5383,7 +5435,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="80" spans="1:16">
+    <row r="80" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>1</v>
       </c>
@@ -5430,7 +5482,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="81" spans="1:16">
+    <row r="81" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>1</v>
       </c>
@@ -5477,7 +5529,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="82" spans="1:16">
+    <row r="82" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>1</v>
       </c>
@@ -5524,7 +5576,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="83" spans="1:16">
+    <row r="83" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>1</v>
       </c>
@@ -5571,7 +5623,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="84" spans="1:16">
+    <row r="84" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>1</v>
       </c>
@@ -5618,7 +5670,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="85" spans="1:16">
+    <row r="85" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>1</v>
       </c>
@@ -5665,7 +5717,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="86" spans="1:16">
+    <row r="86" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>1</v>
       </c>
@@ -5712,7 +5764,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="87" spans="1:16">
+    <row r="87" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>1</v>
       </c>
@@ -5759,7 +5811,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="88" spans="1:16">
+    <row r="88" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>1</v>
       </c>
@@ -5809,7 +5861,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="89" spans="1:16">
+    <row r="89" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>1</v>
       </c>
@@ -5859,7 +5911,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="90" spans="1:16">
+    <row r="90" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>1</v>
       </c>
@@ -5909,7 +5961,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="91" spans="1:16">
+    <row r="91" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>1</v>
       </c>
@@ -5956,7 +6008,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="92" spans="1:16">
+    <row r="92" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>1</v>
       </c>
@@ -6003,7 +6055,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="93" spans="1:16">
+    <row r="93" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>1</v>
       </c>
@@ -6050,7 +6102,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="94" spans="1:16">
+    <row r="94" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>1</v>
       </c>
@@ -6097,7 +6149,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="95" spans="1:16">
+    <row r="95" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>1</v>
       </c>
@@ -6144,7 +6196,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="96" spans="1:16">
+    <row r="96" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>1</v>
       </c>
@@ -6191,7 +6243,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="97" spans="1:16">
+    <row r="97" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>1</v>
       </c>
@@ -6238,7 +6290,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="98" spans="1:16">
+    <row r="98" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>1</v>
       </c>
@@ -6288,7 +6340,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="99" spans="1:16">
+    <row r="99" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>1</v>
       </c>
@@ -6335,7 +6387,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="100" spans="1:16">
+    <row r="100" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>1</v>
       </c>
@@ -6382,7 +6434,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="101" spans="1:16">
+    <row r="101" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>1</v>
       </c>
@@ -6429,7 +6481,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="102" spans="1:16">
+    <row r="102" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>2</v>
       </c>
@@ -6476,7 +6528,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="103" spans="1:16">
+    <row r="103" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>2</v>
       </c>
@@ -6523,7 +6575,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="104" spans="1:16">
+    <row r="104" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>2</v>
       </c>
@@ -6570,7 +6622,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="105" spans="1:16">
+    <row r="105" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>2</v>
       </c>
@@ -6620,7 +6672,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="106" spans="1:16">
+    <row r="106" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>2</v>
       </c>
@@ -6670,7 +6722,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="107" spans="1:16">
+    <row r="107" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>2</v>
       </c>
@@ -6717,7 +6769,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="108" spans="1:16">
+    <row r="108" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>2</v>
       </c>
@@ -6764,7 +6816,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="109" spans="1:16">
+    <row r="109" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>2</v>
       </c>
@@ -6811,7 +6863,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="110" spans="1:16">
+    <row r="110" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>2</v>
       </c>
@@ -6861,7 +6913,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="111" spans="1:16">
+    <row r="111" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>2</v>
       </c>
@@ -6908,7 +6960,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="112" spans="1:16">
+    <row r="112" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>2</v>
       </c>
@@ -6955,7 +7007,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="113" spans="1:16">
+    <row r="113" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>2</v>
       </c>
@@ -7005,7 +7057,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="114" spans="1:16">
+    <row r="114" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>2</v>
       </c>
@@ -7052,7 +7104,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="115" spans="1:16">
+    <row r="115" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A115">
         <v>2</v>
       </c>
@@ -7099,7 +7151,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="116" spans="1:16">
+    <row r="116" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>2</v>
       </c>
@@ -7146,7 +7198,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="117" spans="1:16">
+    <row r="117" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A117">
         <v>2</v>
       </c>
@@ -7193,7 +7245,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="118" spans="1:16">
+    <row r="118" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A118">
         <v>2</v>
       </c>
@@ -7240,7 +7292,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="119" spans="1:16">
+    <row r="119" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A119">
         <v>2</v>
       </c>
@@ -7287,7 +7339,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="120" spans="1:16">
+    <row r="120" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A120">
         <v>2</v>
       </c>
@@ -7334,7 +7386,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="121" spans="1:16">
+    <row r="121" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A121">
         <v>2</v>
       </c>
@@ -7381,7 +7433,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="122" spans="1:16">
+    <row r="122" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A122">
         <v>2</v>
       </c>
@@ -7428,7 +7480,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="123" spans="1:16">
+    <row r="123" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A123">
         <v>2</v>
       </c>
@@ -7475,7 +7527,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="124" spans="1:16">
+    <row r="124" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A124">
         <v>2</v>
       </c>
@@ -7522,7 +7574,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="125" spans="1:16">
+    <row r="125" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A125">
         <v>2</v>
       </c>
@@ -7569,7 +7621,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="126" spans="1:16">
+    <row r="126" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A126">
         <v>2</v>
       </c>
@@ -7616,7 +7668,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="127" spans="1:16">
+    <row r="127" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A127">
         <v>2</v>
       </c>
@@ -7663,7 +7715,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="128" spans="1:16">
+    <row r="128" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A128">
         <v>2</v>
       </c>
@@ -7710,7 +7762,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="129" spans="1:16">
+    <row r="129" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A129">
         <v>2</v>
       </c>
@@ -7757,7 +7809,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="130" spans="1:16">
+    <row r="130" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A130">
         <v>2</v>
       </c>
@@ -7807,7 +7859,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="131" spans="1:16">
+    <row r="131" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A131">
         <v>2</v>
       </c>
@@ -7854,7 +7906,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="132" spans="1:16">
+    <row r="132" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A132">
         <v>2</v>
       </c>
@@ -7901,7 +7953,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="133" spans="1:16">
+    <row r="133" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A133">
         <v>2</v>
       </c>
@@ -7948,7 +8000,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="134" spans="1:16">
+    <row r="134" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A134">
         <v>2</v>
       </c>
@@ -7995,7 +8047,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="135" spans="1:16">
+    <row r="135" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A135">
         <v>2</v>
       </c>
@@ -8042,7 +8094,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="136" spans="1:16">
+    <row r="136" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A136">
         <v>2</v>
       </c>
@@ -8089,7 +8141,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="137" spans="1:16">
+    <row r="137" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A137">
         <v>2</v>
       </c>
@@ -8136,7 +8188,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="138" spans="1:16">
+    <row r="138" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A138">
         <v>2</v>
       </c>
@@ -8183,7 +8235,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="139" spans="1:16">
+    <row r="139" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A139">
         <v>2</v>
       </c>
@@ -8230,7 +8282,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="140" spans="1:16">
+    <row r="140" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A140">
         <v>2</v>
       </c>
@@ -8280,7 +8332,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="141" spans="1:16">
+    <row r="141" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A141">
         <v>2</v>
       </c>
@@ -8327,7 +8379,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="142" spans="1:16">
+    <row r="142" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A142">
         <v>2</v>
       </c>
@@ -8374,7 +8426,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="143" spans="1:16">
+    <row r="143" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A143">
         <v>2</v>
       </c>
@@ -8421,7 +8473,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="144" spans="1:16">
+    <row r="144" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A144">
         <v>2</v>
       </c>
@@ -8468,7 +8520,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="145" spans="1:16">
+    <row r="145" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A145">
         <v>2</v>
       </c>
@@ -8515,7 +8567,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="146" spans="1:16">
+    <row r="146" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A146">
         <v>2</v>
       </c>
@@ -8562,7 +8614,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="147" spans="1:16">
+    <row r="147" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A147">
         <v>2</v>
       </c>
@@ -8609,7 +8661,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="148" spans="1:16">
+    <row r="148" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A148">
         <v>2</v>
       </c>
@@ -8656,7 +8708,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="149" spans="1:16">
+    <row r="149" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A149">
         <v>2</v>
       </c>
@@ -8703,7 +8755,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="150" spans="1:16">
+    <row r="150" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A150">
         <v>2</v>
       </c>
@@ -8750,7 +8802,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="151" spans="1:16">
+    <row r="151" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A151">
         <v>2</v>
       </c>
@@ -8797,7 +8849,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="152" spans="1:16">
+    <row r="152" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A152">
         <v>2</v>
       </c>
@@ -8844,7 +8896,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="153" spans="1:16">
+    <row r="153" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A153">
         <v>2</v>
       </c>
@@ -8891,7 +8943,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="154" spans="1:16">
+    <row r="154" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A154">
         <v>2</v>
       </c>
@@ -8938,7 +8990,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="155" spans="1:16">
+    <row r="155" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A155">
         <v>2</v>
       </c>
@@ -8985,7 +9037,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="156" spans="1:16">
+    <row r="156" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A156">
         <v>2</v>
       </c>
@@ -9032,7 +9084,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="157" spans="1:16">
+    <row r="157" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A157">
         <v>2</v>
       </c>
@@ -9079,7 +9131,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="158" spans="1:16">
+    <row r="158" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A158">
         <v>2</v>
       </c>
@@ -9126,7 +9178,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="159" spans="1:16">
+    <row r="159" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A159">
         <v>2</v>
       </c>
@@ -9173,7 +9225,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="160" spans="1:16">
+    <row r="160" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A160">
         <v>2</v>
       </c>
@@ -9220,7 +9272,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="161" spans="1:16">
+    <row r="161" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A161">
         <v>2</v>
       </c>
@@ -9267,7 +9319,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="162" spans="1:16">
+    <row r="162" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A162">
         <v>2</v>
       </c>
@@ -9314,7 +9366,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="163" spans="1:16">
+    <row r="163" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A163">
         <v>2</v>
       </c>
@@ -9361,7 +9413,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="164" spans="1:16">
+    <row r="164" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A164">
         <v>2</v>
       </c>
@@ -9411,7 +9463,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="165" spans="1:16">
+    <row r="165" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A165">
         <v>2</v>
       </c>
@@ -9458,7 +9510,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="166" spans="1:16">
+    <row r="166" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A166">
         <v>2</v>
       </c>
@@ -9508,7 +9560,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="167" spans="1:16">
+    <row r="167" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A167">
         <v>2</v>
       </c>
@@ -9555,7 +9607,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="168" spans="1:16">
+    <row r="168" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A168">
         <v>2</v>
       </c>
@@ -9605,7 +9657,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="169" spans="1:16">
+    <row r="169" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A169">
         <v>2</v>
       </c>
@@ -9652,7 +9704,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="170" spans="1:16">
+    <row r="170" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A170">
         <v>2</v>
       </c>
@@ -9702,7 +9754,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="171" spans="1:16">
+    <row r="171" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A171">
         <v>2</v>
       </c>
@@ -9749,7 +9801,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="172" spans="1:16">
+    <row r="172" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A172">
         <v>2</v>
       </c>
@@ -9796,7 +9848,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="173" spans="1:16">
+    <row r="173" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A173">
         <v>2</v>
       </c>
@@ -9843,7 +9895,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="174" spans="1:16">
+    <row r="174" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A174">
         <v>2</v>
       </c>
@@ -9890,7 +9942,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="175" spans="1:16">
+    <row r="175" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A175">
         <v>2</v>
       </c>
@@ -9940,7 +9992,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="176" spans="1:16">
+    <row r="176" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A176">
         <v>2</v>
       </c>
@@ -9990,7 +10042,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="177" spans="1:16">
+    <row r="177" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A177">
         <v>2</v>
       </c>
@@ -10037,7 +10089,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="178" spans="1:16">
+    <row r="178" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A178">
         <v>2</v>
       </c>
@@ -10084,7 +10136,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="179" spans="1:16">
+    <row r="179" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A179">
         <v>2</v>
       </c>
@@ -10134,7 +10186,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="180" spans="1:16">
+    <row r="180" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A180">
         <v>2</v>
       </c>
@@ -10184,7 +10236,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="181" spans="1:16">
+    <row r="181" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A181">
         <v>2</v>
       </c>
@@ -10234,7 +10286,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="182" spans="1:16">
+    <row r="182" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A182">
         <v>2</v>
       </c>
@@ -10284,7 +10336,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="183" spans="1:16">
+    <row r="183" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A183">
         <v>2</v>
       </c>
@@ -10334,7 +10386,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="184" spans="1:16">
+    <row r="184" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A184">
         <v>2</v>
       </c>
@@ -10381,7 +10433,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="185" spans="1:16">
+    <row r="185" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A185">
         <v>2</v>
       </c>
@@ -10428,7 +10480,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="186" spans="1:16">
+    <row r="186" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A186">
         <v>2</v>
       </c>
@@ -10475,7 +10527,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="187" spans="1:16">
+    <row r="187" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A187">
         <v>2</v>
       </c>
@@ -10522,7 +10574,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="188" spans="1:16">
+    <row r="188" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A188">
         <v>2</v>
       </c>
@@ -10572,7 +10624,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="189" spans="1:16">
+    <row r="189" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A189">
         <v>2</v>
       </c>
@@ -10619,7 +10671,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="190" spans="1:16">
+    <row r="190" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A190">
         <v>2</v>
       </c>
@@ -10666,7 +10718,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="191" spans="1:16">
+    <row r="191" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A191">
         <v>2</v>
       </c>
@@ -10713,7 +10765,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="192" spans="1:16">
+    <row r="192" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A192">
         <v>2</v>
       </c>
@@ -10760,7 +10812,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="193" spans="1:16">
+    <row r="193" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A193">
         <v>2</v>
       </c>
@@ -10807,7 +10859,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="194" spans="1:16">
+    <row r="194" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A194">
         <v>2</v>
       </c>
@@ -10854,7 +10906,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="195" spans="1:16">
+    <row r="195" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A195">
         <v>2</v>
       </c>
@@ -10901,7 +10953,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="196" spans="1:16">
+    <row r="196" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A196">
         <v>2</v>
       </c>
@@ -10951,7 +11003,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="197" spans="1:16">
+    <row r="197" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A197">
         <v>2</v>
       </c>
@@ -10998,7 +11050,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="198" spans="1:16">
+    <row r="198" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A198">
         <v>2</v>
       </c>
@@ -11048,7 +11100,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="199" spans="1:16">
+    <row r="199" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A199">
         <v>2</v>
       </c>
@@ -11098,7 +11150,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="200" spans="1:16">
+    <row r="200" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A200">
         <v>2</v>
       </c>
@@ -11145,7 +11197,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="201" spans="1:16">
+    <row r="201" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A201">
         <v>2</v>
       </c>
